--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>984889.3948313022</v>
+        <v>914626.2646929336</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7578716.560664612</v>
+        <v>7578716.560664611</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>69.86980048985951</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>127.167154708301</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.36486963835926</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>99.73835480560622</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I5" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>82.12808955468964</v>
+        <v>106.0824622437958</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
@@ -992,10 +992,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>167.4979332891071</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H8" t="n">
-        <v>36.36486963835926</v>
-      </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>159.502812766166</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -1277,7 +1277,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>135.6120992136133</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>245.0673818238887</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,10 +1454,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>104.3007991830867</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.844715398324</v>
+        <v>32.05589645506618</v>
       </c>
       <c r="I12" t="n">
-        <v>66.47641768350114</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.57982147197341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.1571708882374</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.172786516123</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.2488251719237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.025670721027</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.41835445471924</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.6120992136133</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>155.3223558606564</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.47641768350114</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>58.5798214719734</v>
       </c>
       <c r="S15" t="n">
-        <v>18.89193426147768</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T15" t="n">
         <v>196.0379550173603</v>
@@ -1751,7 +1751,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>177.9377045915713</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0932620502043</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>151.464153002416</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>60.0310549719298</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>278.3547055216583</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>97.16022505719037</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>129.5856726381024</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>70.71741314029107</v>
       </c>
       <c r="G18" t="n">
-        <v>129.5095086902663</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.5798214719734</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.1571708882374</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>64.56279930352305</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.025670721027</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>25.41835445471913</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>223.796938273845</v>
+        <v>1.295357200967866</v>
       </c>
       <c r="I20" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.55977888071597</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.0913913621372</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>66.47641768350114</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.5798214719734</v>
+        <v>32.05589645506617</v>
       </c>
       <c r="S21" t="n">
         <v>158.1571708882374</v>
@@ -2225,10 +2225,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.84619230014128</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>54.1968821814993</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.2983257928464</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0932620502043</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>122.3080703115508</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.23617868028539</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>348.8210348458865</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.10032389421251</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1821887834319</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>125.2144706936583</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>30.78589486784676</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.97983816907735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.1322245781321</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
         <v>251.3684020854885</v>
@@ -2623,7 +2623,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246102</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.28281404613732</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S27" t="n">
         <v>155.3758183558542</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7124403105487</v>
+        <v>128.3927968208129</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>215.5689245323096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>269.5956426337176</v>
       </c>
       <c r="X29" t="n">
-        <v>312.3887704965147</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.90268711539152</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>95.31032463304051</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>235.9581826657752</v>
       </c>
       <c r="G32" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>166.1739620301885</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613777</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S33" t="n">
         <v>155.3758183558542</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>76.30951731578142</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3.719522408452893</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>176.758226886607</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>154.0433182329377</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>59.85548488567527</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.7250889229722</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>43.12709304523953</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3520,10 +3520,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>285.5880954821185</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H39" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322539</v>
       </c>
       <c r="I39" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.80490824636399</v>
+        <v>56.9183125199705</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>195.649414864177</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>43.12709304523953</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.2917907515943</v>
+        <v>135.2917907515945</v>
       </c>
       <c r="H42" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>79.46295440791165</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>121.1377335169111</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S43" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>195.649414864177</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>312.9345453060721</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -3994,10 +3994,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I45" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>105.0154845687425</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.3927968208129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.0808785163065</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0808785163065</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D2" t="n">
-        <v>820.0808785163065</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E2" t="n">
-        <v>576.0514062875354</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F2" t="n">
         <v>298.9970554374318</v>
@@ -4333,10 +4333,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4375,7 +4375,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.0808785163065</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.51826063769136</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="C3" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="E3" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G3" t="n">
         <v>21.9427045873282</v>
@@ -4412,49 +4412,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>111.0665668439879</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>359.1441712859059</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M3" t="n">
-        <v>359.1441712859059</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>926.4669324920219</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>926.4669324920219</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>699.5404910100004</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>465.2892475356013</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>465.2892475356013</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X3" t="n">
-        <v>465.2892475356013</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.5608117592518</v>
+        <v>287.7915580351497</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E5" t="n">
-        <v>1060.403037812512</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>783.3486869624082</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>506.2943361123046</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
         <v>21.9427045873282</v>
@@ -4582,37 +4582,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>891.4067935900606</v>
+        <v>559.0379855035231</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>451.8839832370628</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.33601543381311</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>548.9545891439177</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N6" t="n">
-        <v>748.0774423727914</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="Y6" t="n">
-        <v>891.4067935900606</v>
+        <v>726.0805366250836</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="E8" t="n">
-        <v>543.0265276662028</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F8" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G8" t="n">
-        <v>265.9721768160992</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M8" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>820.0808785163065</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="H9" t="n">
         <v>21.9427045873282</v>
@@ -4883,52 +4883,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>936.0212770773536</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>735.6348812104155</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>508.7084397283941</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V9" t="n">
-        <v>274.4571962539949</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W9" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="10">
@@ -4944,31 +4944,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>514.3565633328675</v>
+        <v>1216.149316420908</v>
       </c>
       <c r="C11" t="n">
-        <v>514.3565633328675</v>
+        <v>845.4573005835925</v>
       </c>
       <c r="D11" t="n">
-        <v>514.3565633328675</v>
+        <v>845.4573005835925</v>
       </c>
       <c r="E11" t="n">
-        <v>514.3565633328675</v>
+        <v>458.4693856792618</v>
       </c>
       <c r="F11" t="n">
-        <v>514.3565633328675</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G11" t="n">
-        <v>377.3746449352783</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H11" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I11" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J11" t="n">
-        <v>137.757029126597</v>
+        <v>137.7570291265968</v>
       </c>
       <c r="K11" t="n">
-        <v>395.962795401909</v>
+        <v>395.9627954019087</v>
       </c>
       <c r="L11" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M11" t="n">
         <v>1197.72246802921</v>
@@ -5056,37 +5056,37 @@
         <v>1618.617970932029</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.929307769077</v>
+        <v>1969.929307769078</v>
       </c>
       <c r="P11" t="n">
         <v>2232.826612716458</v>
       </c>
       <c r="Q11" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R11" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S11" t="n">
-        <v>2353.072138481225</v>
+        <v>2170.151541145734</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.072138481225</v>
+        <v>2170.151541145734</v>
       </c>
       <c r="U11" t="n">
-        <v>2353.072138481225</v>
+        <v>1922.608731222614</v>
       </c>
       <c r="V11" t="n">
-        <v>2021.22039956959</v>
+        <v>1590.756992310978</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.149574316504</v>
+        <v>1590.756992310978</v>
       </c>
       <c r="X11" t="n">
-        <v>1292.541898426434</v>
+        <v>1216.149316420908</v>
       </c>
       <c r="Y11" t="n">
-        <v>901.948896657509</v>
+        <v>1216.149316420908</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>643.1763400179701</v>
+        <v>702.3478768583477</v>
       </c>
       <c r="C12" t="n">
-        <v>470.4232249397873</v>
+        <v>529.5947617801648</v>
       </c>
       <c r="D12" t="n">
-        <v>365.0688823306088</v>
+        <v>382.0064551391087</v>
       </c>
       <c r="E12" t="n">
-        <v>365.0688823306088</v>
+        <v>224.3969261419634</v>
       </c>
       <c r="F12" t="n">
-        <v>220.1130923472257</v>
+        <v>79.44113615858026</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1130923472257</v>
+        <v>79.44113615858026</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I12" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J12" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="K12" t="n">
-        <v>261.8008521287447</v>
+        <v>279.2926124030189</v>
       </c>
       <c r="L12" t="n">
-        <v>634.9139257704189</v>
+        <v>652.4056860446931</v>
       </c>
       <c r="M12" t="n">
-        <v>1123.119478178228</v>
+        <v>1140.611238452502</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.645110860744</v>
+        <v>1657.136871135018</v>
       </c>
       <c r="O12" t="n">
-        <v>2044.537134598779</v>
+        <v>2062.028894873054</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="Q12" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R12" t="n">
-        <v>2293.900601640848</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S12" t="n">
-        <v>2134.145883571922</v>
+        <v>2193.317420412299</v>
       </c>
       <c r="T12" t="n">
-        <v>1936.12774719075</v>
+        <v>1995.299284031127</v>
       </c>
       <c r="U12" t="n">
-        <v>1709.239960651369</v>
+        <v>1768.411497491746</v>
       </c>
       <c r="V12" t="n">
-        <v>1474.988717176969</v>
+        <v>1534.160254017347</v>
       </c>
       <c r="W12" t="n">
-        <v>1222.474225510303</v>
+        <v>1281.64576235068</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.94732691588</v>
+        <v>1075.118863756258</v>
       </c>
       <c r="Y12" t="n">
-        <v>810.2188911395306</v>
+        <v>869.3904279799082</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="C13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="D13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="E13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I13" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J13" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="K13" t="n">
-        <v>88.52550135650132</v>
+        <v>88.52550135650137</v>
       </c>
       <c r="L13" t="n">
         <v>197.3888359084143</v>
       </c>
       <c r="M13" t="n">
-        <v>322.7628580499602</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N13" t="n">
-        <v>450.2970280645389</v>
+        <v>450.2970280645391</v>
       </c>
       <c r="O13" t="n">
-        <v>552.7588795211512</v>
+        <v>552.7588795211515</v>
       </c>
       <c r="P13" t="n">
-        <v>617.2102128798</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.2102128798</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="R13" t="n">
-        <v>617.2102128798</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="S13" t="n">
-        <v>617.2102128798</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="T13" t="n">
-        <v>388.676046039473</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="U13" t="n">
-        <v>99.76122712934472</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="V13" t="n">
-        <v>99.76122712934472</v>
+        <v>361.7189491758213</v>
       </c>
       <c r="W13" t="n">
-        <v>99.76122712934472</v>
+        <v>72.73654827944193</v>
       </c>
       <c r="X13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.76122712934472</v>
+        <v>47.06144276962452</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>514.3565633328675</v>
+        <v>794.256158436176</v>
       </c>
       <c r="C14" t="n">
-        <v>514.3565633328675</v>
+        <v>794.256158436176</v>
       </c>
       <c r="D14" t="n">
-        <v>514.3565633328675</v>
+        <v>434.0493576739553</v>
       </c>
       <c r="E14" t="n">
-        <v>514.3565633328675</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F14" t="n">
-        <v>514.3565633328675</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G14" t="n">
-        <v>377.3746449352783</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H14" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I14" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J14" t="n">
         <v>137.757029126597</v>
@@ -5299,31 +5299,31 @@
         <v>2232.826612716458</v>
       </c>
       <c r="Q14" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R14" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S14" t="n">
-        <v>2353.072138481225</v>
+        <v>2170.151541145734</v>
       </c>
       <c r="T14" t="n">
-        <v>2353.072138481225</v>
+        <v>1949.741346045798</v>
       </c>
       <c r="U14" t="n">
-        <v>2353.072138481225</v>
+        <v>1695.811254004304</v>
       </c>
       <c r="V14" t="n">
-        <v>2021.22039956959</v>
+        <v>1695.811254004304</v>
       </c>
       <c r="W14" t="n">
-        <v>1667.149574316504</v>
+        <v>1341.740428751219</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.541898426434</v>
+        <v>1184.849160205101</v>
       </c>
       <c r="Y14" t="n">
-        <v>901.948896657509</v>
+        <v>794.256158436176</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>843.0198330469932</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C15" t="n">
-        <v>670.2667179688103</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D15" t="n">
-        <v>522.6784113277541</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E15" t="n">
-        <v>365.0688823306088</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F15" t="n">
-        <v>220.1130923472257</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1130923472257</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H15" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I15" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J15" t="n">
-        <v>47.06144276962451</v>
+        <v>107.1143052499141</v>
       </c>
       <c r="K15" t="n">
-        <v>261.8008521287447</v>
+        <v>107.1143052499141</v>
       </c>
       <c r="L15" t="n">
-        <v>634.9139257704189</v>
+        <v>480.2273788915883</v>
       </c>
       <c r="M15" t="n">
-        <v>1123.119478178228</v>
+        <v>968.4329312993974</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.645110860744</v>
+        <v>1484.958563981913</v>
       </c>
       <c r="O15" t="n">
-        <v>2044.537134598779</v>
+        <v>1889.850587719948</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.072138481225</v>
+        <v>2198.385591602395</v>
       </c>
       <c r="Q15" t="n">
-        <v>2353.072138481225</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R15" t="n">
-        <v>2353.072138481225</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S15" t="n">
-        <v>2333.989376600945</v>
+        <v>2134.145883571922</v>
       </c>
       <c r="T15" t="n">
-        <v>2135.971240219773</v>
+        <v>1936.12774719075</v>
       </c>
       <c r="U15" t="n">
-        <v>1909.083453680392</v>
+        <v>1709.239960651369</v>
       </c>
       <c r="V15" t="n">
-        <v>1674.832210205992</v>
+        <v>1474.98871717697</v>
       </c>
       <c r="W15" t="n">
-        <v>1422.317718539326</v>
+        <v>1222.474225510303</v>
       </c>
       <c r="X15" t="n">
-        <v>1215.790819944903</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y15" t="n">
-        <v>1010.062384168554</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="C16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="D16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="E16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I16" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="J16" t="n">
-        <v>47.06144276962451</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52550135650134</v>
+        <v>88.52550135650135</v>
       </c>
       <c r="L16" t="n">
         <v>197.3888359084143</v>
       </c>
       <c r="M16" t="n">
-        <v>322.7628580499603</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N16" t="n">
-        <v>450.297028064539</v>
+        <v>450.2970280645391</v>
       </c>
       <c r="O16" t="n">
         <v>552.7588795211514</v>
@@ -5460,28 +5460,28 @@
         <v>617.2102128798001</v>
       </c>
       <c r="R16" t="n">
-        <v>464.2161189379658</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="S16" t="n">
-        <v>248.1971165293559</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T16" t="n">
-        <v>187.5596872647804</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U16" t="n">
-        <v>187.5596872647804</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="V16" t="n">
-        <v>187.5596872647804</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="W16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="X16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962452</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>846.2083022445036</v>
+        <v>1041.377817711723</v>
       </c>
       <c r="C17" t="n">
-        <v>475.5162864071877</v>
+        <v>1041.377817711723</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5162864071877</v>
+        <v>1041.377817711723</v>
       </c>
       <c r="E17" t="n">
-        <v>475.5162864071877</v>
+        <v>1041.377817711723</v>
       </c>
       <c r="F17" t="n">
-        <v>475.5162864071877</v>
+        <v>629.969874802086</v>
       </c>
       <c r="G17" t="n">
-        <v>475.5162864071877</v>
+        <v>212.0227942864127</v>
       </c>
       <c r="H17" t="n">
-        <v>145.203084241534</v>
+        <v>212.0227942864127</v>
       </c>
       <c r="I17" t="n">
         <v>47.06144276962451</v>
@@ -5545,22 +5545,22 @@
         <v>2353.072138481225</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.072138481225</v>
+        <v>2132.661943381289</v>
       </c>
       <c r="U17" t="n">
-        <v>2353.072138481225</v>
+        <v>1878.731851339795</v>
       </c>
       <c r="V17" t="n">
-        <v>2353.072138481225</v>
+        <v>1546.880112428159</v>
       </c>
       <c r="W17" t="n">
-        <v>1999.00131322814</v>
+        <v>1415.985493601793</v>
       </c>
       <c r="X17" t="n">
-        <v>1624.39363733807</v>
+        <v>1041.377817711723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1233.800635569145</v>
+        <v>1041.377817711723</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>643.1763400179701</v>
+        <v>702.3478768583473</v>
       </c>
       <c r="C18" t="n">
-        <v>470.4232249397873</v>
+        <v>529.5947617801644</v>
       </c>
       <c r="D18" t="n">
-        <v>322.8349182987312</v>
+        <v>382.0064551391083</v>
       </c>
       <c r="E18" t="n">
-        <v>322.8349182987312</v>
+        <v>224.396926141963</v>
       </c>
       <c r="F18" t="n">
-        <v>177.879128315348</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="G18" t="n">
-        <v>47.06144276962451</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="H18" t="n">
         <v>47.06144276962451</v>
@@ -5594,52 +5594,52 @@
         <v>47.06144276962451</v>
       </c>
       <c r="J18" t="n">
-        <v>107.1143052499138</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K18" t="n">
-        <v>107.1143052499138</v>
+        <v>261.8008521287447</v>
       </c>
       <c r="L18" t="n">
-        <v>480.227378891588</v>
+        <v>634.9139257704189</v>
       </c>
       <c r="M18" t="n">
-        <v>968.432931299397</v>
+        <v>1123.119478178228</v>
       </c>
       <c r="N18" t="n">
-        <v>1484.958563981913</v>
+        <v>1639.645110860744</v>
       </c>
       <c r="O18" t="n">
-        <v>1889.850587719948</v>
+        <v>2044.537134598779</v>
       </c>
       <c r="P18" t="n">
-        <v>2198.385591602394</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q18" t="n">
         <v>2353.072138481225</v>
       </c>
       <c r="R18" t="n">
-        <v>2293.900601640848</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S18" t="n">
-        <v>2134.145883571922</v>
+        <v>2193.317420412299</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.12774719075</v>
+        <v>1995.299284031127</v>
       </c>
       <c r="U18" t="n">
-        <v>1709.239960651369</v>
+        <v>1768.411497491746</v>
       </c>
       <c r="V18" t="n">
-        <v>1474.988717176969</v>
+        <v>1534.160254017346</v>
       </c>
       <c r="W18" t="n">
-        <v>1222.474225510303</v>
+        <v>1281.64576235068</v>
       </c>
       <c r="X18" t="n">
-        <v>1015.94732691588</v>
+        <v>1075.118863756257</v>
       </c>
       <c r="Y18" t="n">
-        <v>810.2188911395306</v>
+        <v>869.3904279799077</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.2763915610619</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="C19" t="n">
         <v>47.06144276962451</v>
@@ -5700,25 +5700,25 @@
         <v>617.2102128798001</v>
       </c>
       <c r="S19" t="n">
-        <v>401.1912104711902</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T19" t="n">
-        <v>401.1912104711902</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U19" t="n">
-        <v>112.2763915610619</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="V19" t="n">
-        <v>112.2763915610619</v>
+        <v>361.7189491758211</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2763915610619</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="X19" t="n">
-        <v>112.2763915610619</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.2763915610619</v>
+        <v>47.06144276962451</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1168.979124293873</v>
+        <v>830.4698431337168</v>
       </c>
       <c r="C20" t="n">
-        <v>798.2871084565576</v>
+        <v>459.777827296401</v>
       </c>
       <c r="D20" t="n">
-        <v>438.080307694337</v>
+        <v>459.777827296401</v>
       </c>
       <c r="E20" t="n">
-        <v>438.080307694337</v>
+        <v>459.777827296401</v>
       </c>
       <c r="F20" t="n">
-        <v>438.080307694337</v>
+        <v>48.36988438676377</v>
       </c>
       <c r="G20" t="n">
-        <v>438.080307694337</v>
+        <v>48.36988438676377</v>
       </c>
       <c r="H20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I20" t="n">
         <v>47.06144276962451</v>
@@ -5755,10 +5755,10 @@
         <v>137.757029126597</v>
       </c>
       <c r="K20" t="n">
-        <v>395.9627954019088</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L20" t="n">
-        <v>768.2589587052585</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M20" t="n">
         <v>1197.72246802921</v>
@@ -5776,28 +5776,28 @@
         <v>2353.072138481225</v>
       </c>
       <c r="R20" t="n">
-        <v>2278.769331531007</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S20" t="n">
-        <v>2095.848734195515</v>
+        <v>2170.151541145734</v>
       </c>
       <c r="T20" t="n">
-        <v>1875.438539095579</v>
+        <v>1949.741346045798</v>
       </c>
       <c r="U20" t="n">
-        <v>1875.438539095579</v>
+        <v>1949.741346045798</v>
       </c>
       <c r="V20" t="n">
-        <v>1543.586800183944</v>
+        <v>1949.741346045798</v>
       </c>
       <c r="W20" t="n">
-        <v>1543.586800183944</v>
+        <v>1595.670520792712</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.979124293873</v>
+        <v>1221.062844902642</v>
       </c>
       <c r="Y20" t="n">
-        <v>1168.979124293873</v>
+        <v>830.4698431337168</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.8294599441549</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C21" t="n">
-        <v>807.076344865972</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D21" t="n">
-        <v>659.488038224916</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E21" t="n">
-        <v>501.8785092277707</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F21" t="n">
-        <v>356.9227192443875</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G21" t="n">
-        <v>220.1130923472257</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H21" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I21" t="n">
         <v>47.06144276962451</v>
@@ -5840,43 +5840,43 @@
         <v>652.4056860446931</v>
       </c>
       <c r="M21" t="n">
-        <v>968.432931299397</v>
+        <v>1140.611238452502</v>
       </c>
       <c r="N21" t="n">
-        <v>1484.958563981913</v>
+        <v>1657.136871135018</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.850587719948</v>
+        <v>2062.028894873053</v>
       </c>
       <c r="P21" t="n">
-        <v>2198.385591602394</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q21" t="n">
         <v>2353.072138481225</v>
       </c>
       <c r="R21" t="n">
-        <v>2293.900601640848</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S21" t="n">
-        <v>2134.145883571922</v>
+        <v>2160.937727023343</v>
       </c>
       <c r="T21" t="n">
-        <v>1936.12774719075</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U21" t="n">
-        <v>1709.239960651369</v>
+        <v>1736.03180410279</v>
       </c>
       <c r="V21" t="n">
-        <v>1474.988717176969</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W21" t="n">
-        <v>1222.474225510303</v>
+        <v>1249.266068961724</v>
       </c>
       <c r="X21" t="n">
-        <v>1222.474225510303</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.872011065715</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="C22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="D22" t="n">
-        <v>401.1912104711902</v>
+        <v>343.156034267608</v>
       </c>
       <c r="E22" t="n">
-        <v>401.1912104711902</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="F22" t="n">
-        <v>401.1912104711902</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G22" t="n">
-        <v>346.4468850353323</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H22" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I22" t="n">
         <v>47.06144276962451</v>
@@ -5937,25 +5937,25 @@
         <v>617.2102128798001</v>
       </c>
       <c r="S22" t="n">
-        <v>401.1912104711902</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T22" t="n">
-        <v>401.1912104711902</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U22" t="n">
-        <v>401.1912104711902</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="V22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="W22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="X22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="Y22" t="n">
-        <v>401.1912104711902</v>
+        <v>493.6667075145972</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1171.417838077945</v>
+        <v>950.5187721563584</v>
       </c>
       <c r="C23" t="n">
-        <v>800.7258222406292</v>
+        <v>950.5187721563584</v>
       </c>
       <c r="D23" t="n">
-        <v>440.5190214784086</v>
+        <v>950.5187721563584</v>
       </c>
       <c r="E23" t="n">
-        <v>53.53110657407782</v>
+        <v>950.5187721563584</v>
       </c>
       <c r="F23" t="n">
-        <v>53.53110657407782</v>
+        <v>539.1108292467211</v>
       </c>
       <c r="G23" t="n">
-        <v>53.53110657407782</v>
+        <v>121.4464385743661</v>
       </c>
       <c r="H23" t="n">
-        <v>53.53110657407782</v>
+        <v>121.4464385743661</v>
       </c>
       <c r="I23" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
         <v>167.7421803733074</v>
@@ -5995,19 +5995,19 @@
         <v>461.1915665632928</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P23" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q23" t="n">
         <v>2676.555328703891</v>
@@ -6019,22 +6019,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T23" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U23" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V23" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="W23" t="n">
-        <v>2324.210849061581</v>
+        <v>2103.311783139995</v>
       </c>
       <c r="X23" t="n">
-        <v>1949.603173171512</v>
+        <v>1728.704107249925</v>
       </c>
       <c r="Y23" t="n">
-        <v>1559.010171402586</v>
+        <v>1338.111105481</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>356.5727572673188</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I24" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454658</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791048</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M24" t="n">
         <v>1240.767547500212</v>
@@ -6083,31 +6083,31 @@
         <v>1795.848577958314</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252654</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537544</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R24" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S24" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T24" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U24" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V24" t="n">
         <v>1811.291875126085</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X24" t="n">
         <v>1352.250484864996</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2329.117808944874</v>
+        <v>657.8961579689819</v>
       </c>
       <c r="C25" t="n">
-        <v>2329.117808944874</v>
+        <v>657.8961579689819</v>
       </c>
       <c r="D25" t="n">
-        <v>2329.117808944874</v>
+        <v>507.3854847219926</v>
       </c>
       <c r="E25" t="n">
-        <v>2329.117808944874</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="F25" t="n">
-        <v>2329.117808944874</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G25" t="n">
-        <v>2160.151756995067</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J25" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K25" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L25" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M25" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N25" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O25" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W25" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X25" t="n">
-        <v>2550.076065376963</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y25" t="n">
-        <v>2329.117808944874</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>424.2231224113937</v>
+        <v>1111.848027981385</v>
       </c>
       <c r="C26" t="n">
-        <v>53.53110657407782</v>
+        <v>741.1560121440689</v>
       </c>
       <c r="D26" t="n">
-        <v>53.53110657407782</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="E26" t="n">
-        <v>53.53110657407782</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="F26" t="n">
-        <v>53.53110657407782</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G26" t="n">
-        <v>53.53110657407782</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H26" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K26" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M26" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N26" t="n">
         <v>1825.656916993543</v>
@@ -6244,34 +6244,34 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P26" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q26" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S26" t="n">
-        <v>2516.84617441378</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T26" t="n">
-        <v>2516.84617441378</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U26" t="n">
-        <v>2262.938697559752</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V26" t="n">
-        <v>1931.086958648116</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="W26" t="n">
-        <v>1577.01613339503</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="X26" t="n">
-        <v>1202.40845750496</v>
+        <v>1142.94489148426</v>
       </c>
       <c r="Y26" t="n">
-        <v>811.8154557360351</v>
+        <v>1142.94489148426</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670866</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D27" t="n">
-        <v>659.1380762478477</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I27" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>239.7918714752597</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L27" t="n">
-        <v>645.0924182088987</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M27" t="n">
-        <v>1170.859233530006</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
         <v>1725.940263988108</v>
@@ -6323,34 +6323,34 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2502.945759567338</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
         <v>109.4344173802943</v>
@@ -6414,22 +6414,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>499.7021009827838</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="U28" t="n">
-        <v>499.7021009827838</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="V28" t="n">
-        <v>499.7021009827838</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W28" t="n">
-        <v>499.7021009827838</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X28" t="n">
-        <v>271.2774949905522</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1582.825780987582</v>
+        <v>1364.084496296101</v>
       </c>
       <c r="C29" t="n">
-        <v>1212.133765150267</v>
+        <v>1364.084496296101</v>
       </c>
       <c r="D29" t="n">
-        <v>851.9269643880459</v>
+        <v>1364.084496296101</v>
       </c>
       <c r="E29" t="n">
-        <v>464.9390494837151</v>
+        <v>1364.084496296101</v>
       </c>
       <c r="F29" t="n">
-        <v>53.53110657407782</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="G29" t="n">
-        <v>53.53110657407782</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H29" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I29" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632931</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N29" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O29" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P29" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q29" t="n">
         <v>2676.555328703891</v>
@@ -6490,25 +6490,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S29" t="n">
-        <v>2676.555328703891</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T29" t="n">
-        <v>2676.555328703891</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U29" t="n">
-        <v>2676.555328703891</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V29" t="n">
-        <v>2676.555328703891</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="W29" t="n">
-        <v>2676.555328703891</v>
+        <v>1754.677498065026</v>
       </c>
       <c r="X29" t="n">
-        <v>2361.011116081149</v>
+        <v>1754.677498065026</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.418114312224</v>
+        <v>1364.084496296101</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D30" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507024</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I30" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J30" t="n">
         <v>129.3364848865957</v>
       </c>
       <c r="K30" t="n">
-        <v>385.5055637579836</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0924182088991</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M30" t="n">
-        <v>1170.859233530006</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N30" t="n">
         <v>1725.940263988108</v>
@@ -6560,28 +6560,28 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
-        <v>2502.945759567338</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R30" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G31" t="n">
-        <v>347.9757675892945</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I31" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J31" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K31" t="n">
         <v>109.4344173802943</v>
@@ -6657,16 +6657,16 @@
         <v>438.7865626553465</v>
       </c>
       <c r="V31" t="n">
-        <v>438.7865626553465</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>798.6136020542033</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="C32" t="n">
-        <v>798.6136020542033</v>
+        <v>1096.525010803062</v>
       </c>
       <c r="D32" t="n">
-        <v>798.6136020542033</v>
+        <v>1096.525010803062</v>
       </c>
       <c r="E32" t="n">
-        <v>798.6136020542033</v>
+        <v>709.537095898731</v>
       </c>
       <c r="F32" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
@@ -6724,28 +6724,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S32" t="n">
-        <v>2500.076526173014</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T32" t="n">
-        <v>2280.903805862204</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U32" t="n">
-        <v>2026.996329008175</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V32" t="n">
-        <v>1695.144590096539</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W32" t="n">
-        <v>1341.073764843454</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X32" t="n">
-        <v>966.4660889533836</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y32" t="n">
-        <v>798.6136020542033</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D33" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H33" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I33" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K33" t="n">
-        <v>239.79187147526</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L33" t="n">
-        <v>645.0924182088991</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M33" t="n">
-        <v>1170.859233530006</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N33" t="n">
         <v>1725.940263988108</v>
@@ -6797,7 +6797,7 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P33" t="n">
-        <v>2502.945759567338</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
@@ -6806,25 +6806,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S33" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X33" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2342.781865392672</v>
+        <v>542.0346529135029</v>
       </c>
       <c r="C34" t="n">
-        <v>2342.781865392672</v>
+        <v>373.0078317708743</v>
       </c>
       <c r="D34" t="n">
-        <v>2342.781865392672</v>
+        <v>222.497158523885</v>
       </c>
       <c r="E34" t="n">
-        <v>2342.781865392672</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F34" t="n">
-        <v>2342.781865392672</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G34" t="n">
-        <v>2342.781865392672</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H34" t="n">
-        <v>2185.02207874274</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>2048.337204377455</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>2570.774229342721</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>2570.774229342721</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T34" t="n">
-        <v>2342.781865392672</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U34" t="n">
-        <v>2342.781865392672</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V34" t="n">
-        <v>2342.781865392672</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W34" t="n">
-        <v>2342.781865392672</v>
+        <v>723.9373715909613</v>
       </c>
       <c r="X34" t="n">
-        <v>2342.781865392672</v>
+        <v>723.9373715909613</v>
       </c>
       <c r="Y34" t="n">
-        <v>2342.781865392672</v>
+        <v>723.9373715909613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1111.848027981385</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="C35" t="n">
-        <v>741.1560121440689</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="D35" t="n">
-        <v>380.9492113818482</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="E35" t="n">
-        <v>380.9492113818482</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F35" t="n">
-        <v>380.9492113818482</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G35" t="n">
-        <v>380.9492113818482</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H35" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I35" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L35" t="n">
         <v>877.2105568248485</v>
@@ -6949,7 +6949,7 @@
         <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O35" t="n">
         <v>2223.65047400805</v>
@@ -6961,28 +6961,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T35" t="n">
-        <v>2498.011665182065</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U35" t="n">
-        <v>2244.104188328037</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V35" t="n">
-        <v>2244.104188328037</v>
+        <v>1814.851726581897</v>
       </c>
       <c r="W35" t="n">
-        <v>1890.033363074951</v>
+        <v>1814.851726581897</v>
       </c>
       <c r="X35" t="n">
-        <v>1890.033363074951</v>
+        <v>1814.851726581897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1499.440361306026</v>
+        <v>1424.258724812972</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>309.7001854454657</v>
       </c>
       <c r="L36" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M36" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O36" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P36" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.0857838151677</v>
+        <v>545.7917462553745</v>
       </c>
       <c r="C37" t="n">
-        <v>410.0857838151677</v>
+        <v>376.7649251127459</v>
       </c>
       <c r="D37" t="n">
-        <v>349.6256980720614</v>
+        <v>376.7649251127459</v>
       </c>
       <c r="E37" t="n">
-        <v>201.1664817354965</v>
+        <v>376.7649251127459</v>
       </c>
       <c r="F37" t="n">
-        <v>53.53110657407781</v>
+        <v>376.7649251127459</v>
       </c>
       <c r="G37" t="n">
-        <v>53.53110657407781</v>
+        <v>207.7988731629387</v>
       </c>
       <c r="H37" t="n">
         <v>53.53110657407781</v>
@@ -7116,31 +7116,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>410.0857838151677</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V37" t="n">
-        <v>410.0857838151677</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W37" t="n">
-        <v>410.0857838151677</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X37" t="n">
-        <v>410.0857838151677</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.0857838151677</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2288.962995379249</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="C38" t="n">
-        <v>1918.270979541933</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="D38" t="n">
-        <v>1558.064178779713</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="E38" t="n">
-        <v>1171.076263875382</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F38" t="n">
-        <v>759.6683209657444</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G38" t="n">
-        <v>342.0039302933894</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H38" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L38" t="n">
         <v>877.2105568248485</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X38" t="n">
-        <v>2676.555328703891</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y38" t="n">
-        <v>2676.555328703891</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>219.9143827707589</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407781</v>
@@ -7271,7 +7271,7 @@
         <v>2236.011258252653</v>
       </c>
       <c r="P39" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.8997007623243</v>
+        <v>111.024351543745</v>
       </c>
       <c r="C40" t="n">
-        <v>109.8997007623243</v>
+        <v>111.024351543745</v>
       </c>
       <c r="D40" t="n">
-        <v>109.8997007623243</v>
+        <v>111.024351543745</v>
       </c>
       <c r="E40" t="n">
-        <v>109.8997007623243</v>
+        <v>111.024351543745</v>
       </c>
       <c r="F40" t="n">
-        <v>109.8997007623243</v>
+        <v>111.024351543745</v>
       </c>
       <c r="G40" t="n">
         <v>53.53110657407781</v>
@@ -7353,31 +7353,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>337.8920647123734</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T40" t="n">
-        <v>109.8997007623243</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="U40" t="n">
-        <v>109.8997007623243</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="V40" t="n">
-        <v>109.8997007623243</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="W40" t="n">
-        <v>109.8997007623243</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="X40" t="n">
-        <v>109.8997007623243</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.8997007623243</v>
+        <v>292.9270702212034</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1467.217026640378</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="C41" t="n">
-        <v>1269.591355060401</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.591355060401</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="E41" t="n">
-        <v>882.6034401560701</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F41" t="n">
-        <v>471.1954972464328</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G41" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H41" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7447,16 +7447,16 @@
         <v>2620.010037624014</v>
       </c>
       <c r="V41" t="n">
-        <v>2620.010037624014</v>
+        <v>2576.447317376298</v>
       </c>
       <c r="W41" t="n">
-        <v>2620.010037624014</v>
+        <v>2576.447317376298</v>
       </c>
       <c r="X41" t="n">
-        <v>2245.402361733944</v>
+        <v>2201.839641486228</v>
       </c>
       <c r="Y41" t="n">
-        <v>1854.809359965019</v>
+        <v>1811.246639717303</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>356.5727572673188</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I42" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J42" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K42" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L42" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M42" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N42" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O42" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P42" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="C43" t="n">
-        <v>344.8585055106639</v>
+        <v>500.1363713190506</v>
       </c>
       <c r="D43" t="n">
-        <v>344.8585055106639</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="E43" t="n">
-        <v>344.8585055106639</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F43" t="n">
-        <v>344.8585055106639</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G43" t="n">
-        <v>175.8924535608567</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H43" t="n">
-        <v>175.8924535608567</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I43" t="n">
         <v>53.53110657407781</v>
@@ -7593,28 +7593,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="X43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="Y43" t="n">
-        <v>513.8853266532925</v>
+        <v>580.4019818320927</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1680.179996605264</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.179996605264</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="D44" t="n">
-        <v>1680.179996605264</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E44" t="n">
-        <v>1364.084496296101</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F44" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G44" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248481</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7663,7 +7663,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O44" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P44" t="n">
         <v>2526.389973845557</v>
@@ -7681,19 +7681,19 @@
         <v>2620.010037624014</v>
       </c>
       <c r="U44" t="n">
-        <v>2366.102560769986</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V44" t="n">
-        <v>2034.25082185835</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W44" t="n">
-        <v>1680.179996605264</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X44" t="n">
-        <v>1680.179996605264</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.179996605264</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.4794979670864</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889036</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D45" t="n">
-        <v>659.1380762478475</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E45" t="n">
-        <v>501.5285472507022</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F45" t="n">
-        <v>356.572757267319</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G45" t="n">
-        <v>219.9143827707591</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4714096068665</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I45" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L45" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N45" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O45" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7757,16 +7757,16 @@
         <v>2469.829437388747</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V45" t="n">
         <v>1811.291875126085</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X45" t="n">
         <v>1352.250484864996</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.53110657407781</v>
+        <v>317.3671402631429</v>
       </c>
       <c r="C46" t="n">
-        <v>53.53110657407781</v>
+        <v>317.3671402631429</v>
       </c>
       <c r="D46" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="E46" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="F46" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G46" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H46" t="n">
         <v>53.53110657407781</v>
@@ -7839,19 +7839,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0047711744361</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V46" t="n">
-        <v>342.5135074704571</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W46" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X46" t="n">
-        <v>53.53110657407781</v>
+        <v>499.2698589406014</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.53110657407781</v>
+        <v>499.2698589406014</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863012</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8060,13 +8060,13 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>224.4195062895552</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>256.5416321892494</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155704</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>329.1923644619305</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,7 +8531,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
@@ -8540,7 +8540,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>362.2401502120439</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N9" t="n">
         <v>128.05816928125</v>
@@ -8552,7 +8552,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.71072211854435</v>
+        <v>68.71072211854431</v>
       </c>
       <c r="K12" t="n">
-        <v>257.3754017715928</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>313.5328346640456</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.23134199393849</v>
+        <v>62.23134199393844</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>68.71072211854434</v>
+        <v>129.3701791693419</v>
       </c>
       <c r="K15" t="n">
-        <v>257.3754017715927</v>
+        <v>40.4669074694511</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.23134199393847</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>129.3701791693416</v>
+        <v>68.71072211854434</v>
       </c>
       <c r="K18" t="n">
-        <v>40.46690746945113</v>
+        <v>257.3754017715928</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393847</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9488,7 +9488,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4157843271664</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
@@ -9497,10 +9497,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>313.5328346640456</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393847</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946163</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895194</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946162</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>204.4293879373181</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10193,10 +10193,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>127.8582987327544</v>
       </c>
       <c r="L30" t="n">
-        <v>238.4884113552706</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>204.4293879373185</v>
+        <v>127.8582987327544</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10670,7 +10670,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>315.0595005598337</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10919,10 +10919,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>260.5868208297715</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.29483148495635</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22549,7 +22549,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -22558,7 +22558,7 @@
         <v>141.5288582488041</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389383</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
         <v>140.5709580622284</v>
@@ -22615,7 +22615,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>101.1557834375415</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -22637,10 +22637,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>16.33907737524834</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22792,19 +22792,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>346.7531661169282</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389383</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>123.2267623908141</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22852,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>88.89749437271135</v>
+        <v>64.9431216836052</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -22931,7 +22931,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23029,22 +23029,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>215.6201024661804</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>301.7790337497941</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -23086,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>51.73378021726776</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9.458801139478396</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -23184,13 +23184,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>116.2514612827155</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
@@ -23199,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>278.1555104969032</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I11" t="n">
-        <v>163.3117380016204</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.55977888071598</v>
+        <v>73.55977888071594</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.2060931489365</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3907911210793</v>
+        <v>6.323409297190608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23342,10 +23342,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>41.81162439155885</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>135.4415306281902</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>72.78881894325778</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.57982147197339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>157.2983257928464</v>
       </c>
       <c r="I13" t="n">
-        <v>86.92047553408129</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J13" t="n">
-        <v>54.36123928117399</v>
+        <v>54.36123928117397</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.92577309034243</v>
+        <v>38.9257730903424</v>
       </c>
       <c r="R13" t="n">
-        <v>151.464153002416</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S13" t="n">
         <v>213.8588123845238</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>200.72200547759</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>278.1555104969032</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I14" t="n">
         <v>163.3117380016203</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.55977888071597</v>
+        <v>73.55977888071595</v>
       </c>
       <c r="S14" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>215.539243270513</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.5798214719734</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>139.2652366267597</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>26.52392501690696</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>157.2983257928464</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J16" t="n">
-        <v>54.36123928117399</v>
+        <v>54.36123928117398</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.92577309034242</v>
+        <v>38.92577309034241</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T16" t="n">
-        <v>166.2177701999939</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U16" t="n">
-        <v>286.025670721027</v>
+        <v>7.670965199368709</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23743,16 +23743,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
-        <v>66.15151294442997</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>181.0913913621372</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>220.9444443624522</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>72.78881894325822</v>
       </c>
       <c r="G18" t="n">
-        <v>5.932021937923908</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H18" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>66.47641768350114</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>58.5798214719734</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>102.7737536276793</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23940,22 +23940,22 @@
         <v>151.464153002416</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T19" t="n">
         <v>226.2488251719237</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>200.7220054775901</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.7676097105165</v>
       </c>
       <c r="H20" t="n">
-        <v>103.2131318701522</v>
+        <v>325.7147129430293</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.55977888071597</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>251.3907911210793</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.52392501690723</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>128.8249591184447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,22 +24132,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.2050461312593</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J22" t="n">
         <v>54.36123928117399</v>
@@ -24177,7 +24177,7 @@
         <v>151.464153002416</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T22" t="n">
         <v>226.2488251719237</v>
@@ -24186,7 +24186,7 @@
         <v>286.025670721027</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>130.6282807553883</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>85.28614313865218</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.97983816907737</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3684020854885</v>
@@ -24268,7 +24268,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>1.709082154668124</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>110.9833675964713</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J25" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.41377105177699</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R25" t="n">
         <v>145.8195582697328</v>
@@ -24429,10 +24429,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>100.9258892386509</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>352.9305151235483</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24460,10 +24460,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>152.5223218189375</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
-        <v>72.58178992743588</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24624,7 +24624,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
-        <v>45.48578169199546</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.41377105177698</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
         <v>145.8195582697328</v>
@@ -24654,22 +24654,22 @@
         <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>97.31964348973577</v>
       </c>
       <c r="U28" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.179749335458581</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S29" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>80.93447436683698</v>
       </c>
       <c r="X29" t="n">
-        <v>58.47282863465466</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>77.37370431491762</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J31" t="n">
         <v>45.48578169199548</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>171.3356808147657</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>152.5223218189376</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>220.5131097210473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25089,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R34" t="n">
-        <v>69.51004095395137</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
         <v>286.0188232547115</v>
@@ -25137,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>282.3730544789626</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>40.22276622109504</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>174.4899032895817</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>89.15008162884409</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1821887834319</v>
+        <v>3.457099860459664</v>
       </c>
       <c r="I37" t="n">
         <v>135.3180256216325</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25368,7 +25368,7 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>313.4776397093589</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>38.55582827757421</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.714014505568</v>
@@ -25456,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>111.4714831839452</v>
+        <v>110.3580789103386</v>
       </c>
       <c r="H40" t="n">
         <v>156.1821887834319</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
         <v>286.0188232547115</v>
@@ -25617,7 +25617,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>171.3356808147656</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25648,7 +25648,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>285.4061284772798</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25788,25 +25788,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>87.87359852329068</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H43" t="n">
         <v>156.1821887834319</v>
       </c>
       <c r="I43" t="n">
-        <v>14.18029210472145</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J43" t="n">
         <v>45.48578169199548</v>
@@ -25833,10 +25833,10 @@
         <v>28.413771051777</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
         <v>225.7124403105487</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>171.3356808147656</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>70.18349044921536</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>43.99008194577682</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -26040,7 +26040,7 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>135.3180256216325</v>
@@ -26079,16 +26079,16 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>157.6260264338987</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>685054.5629920844</v>
+        <v>685054.5629920845</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>685054.5629920844</v>
+        <v>685054.5629920845</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743239.4391816368</v>
+        <v>743239.4391816367</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>743239.4391816364</v>
+        <v>743239.4391816366</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>743239.4391816366</v>
+        <v>743239.4391816364</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743239.4391816366</v>
+        <v>743239.4391816364</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164518.2676502331</v>
+        <v>164518.2676502332</v>
       </c>
       <c r="C2" t="n">
-        <v>164518.2676502333</v>
+        <v>164518.2676502332</v>
       </c>
       <c r="D2" t="n">
-        <v>164518.2676502333</v>
+        <v>164518.2676502332</v>
       </c>
       <c r="E2" t="n">
         <v>248440.9536324344</v>
       </c>
       <c r="F2" t="n">
-        <v>248440.9536324345</v>
+        <v>248440.9536324344</v>
       </c>
       <c r="G2" t="n">
-        <v>248440.9536324345</v>
+        <v>248440.9536324343</v>
       </c>
       <c r="H2" t="n">
-        <v>248440.9536324343</v>
+        <v>248440.9536324344</v>
       </c>
       <c r="I2" t="n">
-        <v>270047.2565422128</v>
+        <v>270047.2565422126</v>
       </c>
       <c r="J2" t="n">
-        <v>270047.2565422128</v>
+        <v>270047.2565422127</v>
       </c>
       <c r="K2" t="n">
         <v>270047.2565422127</v>
       </c>
       <c r="L2" t="n">
-        <v>270047.2565422127</v>
+        <v>270047.2565422128</v>
       </c>
       <c r="M2" t="n">
         <v>270047.2565422127</v>
       </c>
       <c r="N2" t="n">
-        <v>270047.2565422126</v>
+        <v>270047.2565422127</v>
       </c>
       <c r="O2" t="n">
         <v>270047.2565422127</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311013.0387995445</v>
+        <v>311013.0387995447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73908.54814175458</v>
+        <v>73908.54814175451</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78246.12537476208</v>
+        <v>78246.12537476215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>17659.22691552231</v>
       </c>
       <c r="D4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="E4" t="n">
         <v>18633.73534966713</v>
@@ -26478,10 +26478,10 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>41662.07004083532</v>
+        <v>41662.07004083533</v>
       </c>
       <c r="F5" t="n">
-        <v>41662.07004083532</v>
+        <v>41662.07004083533</v>
       </c>
       <c r="G5" t="n">
         <v>41662.07004083532</v>
@@ -26490,16 +26490,16 @@
         <v>41662.07004083532</v>
       </c>
       <c r="I5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="J5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="K5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="L5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="M5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4636.172880601545</v>
+        <v>-7052.956142654288</v>
       </c>
       <c r="C6" t="n">
-        <v>96554.98524834156</v>
+        <v>84865.85622508556</v>
       </c>
       <c r="D6" t="n">
-        <v>96554.98524834153</v>
+        <v>84865.85622508556</v>
       </c>
       <c r="E6" t="n">
-        <v>-122867.8905576125</v>
+        <v>-130140.0361081212</v>
       </c>
       <c r="F6" t="n">
-        <v>188145.148241932</v>
+        <v>180873.0026914235</v>
       </c>
       <c r="G6" t="n">
-        <v>188145.148241932</v>
+        <v>180873.0026914234</v>
       </c>
       <c r="H6" t="n">
-        <v>188145.1482419318</v>
+        <v>180873.0026914235</v>
       </c>
       <c r="I6" t="n">
-        <v>129156.9394311394</v>
+        <v>123021.9677179875</v>
       </c>
       <c r="J6" t="n">
-        <v>131300.7750848077</v>
+        <v>125165.8033716559</v>
       </c>
       <c r="K6" t="n">
-        <v>203065.4875728939</v>
+        <v>196930.5158597421</v>
       </c>
       <c r="L6" t="n">
-        <v>203065.4875728938</v>
+        <v>196930.5158597422</v>
       </c>
       <c r="M6" t="n">
-        <v>124819.3621981317</v>
+        <v>118684.39048498</v>
       </c>
       <c r="N6" t="n">
-        <v>203065.4875728937</v>
+        <v>196930.5158597422</v>
       </c>
       <c r="O6" t="n">
-        <v>203065.4875728938</v>
+        <v>196930.5158597421</v>
       </c>
       <c r="P6" t="n">
-        <v>203065.4875728939</v>
+        <v>196930.5158597421</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119586</v>
+        <v>270.4299787119588</v>
       </c>
       <c r="F3" t="n">
         <v>270.4299787119587</v>
@@ -26761,7 +26761,7 @@
         <v>340.045886252127</v>
       </c>
       <c r="J3" t="n">
-        <v>340.0458862521271</v>
+        <v>340.045886252127</v>
       </c>
       <c r="K3" t="n">
         <v>340.045886252127</v>
@@ -26798,10 +26798,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>588.2680346203064</v>
+        <v>588.2680346203065</v>
       </c>
       <c r="F4" t="n">
-        <v>588.2680346203064</v>
+        <v>588.2680346203065</v>
       </c>
       <c r="G4" t="n">
         <v>588.2680346203064</v>
@@ -26810,16 +26810,16 @@
         <v>588.2680346203064</v>
       </c>
       <c r="I4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="J4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="K4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="L4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="M4" t="n">
         <v>669.1388321759727</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119586</v>
+        <v>270.4299787119588</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69.61590754016839</v>
+        <v>69.61590754016834</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>313.9842272787038</v>
+        <v>313.9842272787039</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8707975556664</v>
+        <v>80.87079755566629</v>
       </c>
       <c r="J4" t="n">
         <v>274.2838073416025</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787037</v>
+        <v>313.984227278704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787038</v>
+        <v>313.9842272787039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.087155693314406</v>
       </c>
       <c r="H11" t="n">
-        <v>11.13383324415616</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I11" t="n">
-        <v>41.91256986650366</v>
+        <v>41.91256986650369</v>
       </c>
       <c r="J11" t="n">
-        <v>92.27098052544362</v>
+        <v>92.27098052544368</v>
       </c>
       <c r="K11" t="n">
-        <v>138.2902810234424</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5613220727132</v>
+        <v>171.5613220727133</v>
       </c>
       <c r="M11" t="n">
-        <v>190.8950271336932</v>
+        <v>190.8950271336934</v>
       </c>
       <c r="N11" t="n">
-        <v>193.9839082473228</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O11" t="n">
-        <v>183.1735038219277</v>
+        <v>183.1735038219278</v>
       </c>
       <c r="P11" t="n">
-        <v>156.3343476432283</v>
+        <v>156.3343476432284</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.4005843764061</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R11" t="n">
-        <v>68.29104382016109</v>
+        <v>68.29104382016114</v>
       </c>
       <c r="S11" t="n">
-        <v>24.77356036140204</v>
+        <v>24.77356036140206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.759024047483813</v>
+        <v>4.759024047483816</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08697245546515243</v>
+        <v>0.08697245546515249</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5816795768521373</v>
+        <v>0.5816795768521378</v>
       </c>
       <c r="H12" t="n">
-        <v>5.617800123808801</v>
+        <v>5.617800123808805</v>
       </c>
       <c r="I12" t="n">
-        <v>20.02712578197052</v>
+        <v>20.02712578197054</v>
       </c>
       <c r="J12" t="n">
-        <v>54.95596388145567</v>
+        <v>54.95596388145571</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92849553054887</v>
+        <v>93.92849553054893</v>
       </c>
       <c r="L12" t="n">
         <v>126.2984537371275</v>
       </c>
       <c r="M12" t="n">
-        <v>147.3843383980174</v>
+        <v>147.3843383980175</v>
       </c>
       <c r="N12" t="n">
-        <v>151.2851632796267</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O12" t="n">
-        <v>138.3963684451662</v>
+        <v>138.3963684451663</v>
       </c>
       <c r="P12" t="n">
-        <v>111.0752869166156</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25088773993249</v>
+        <v>74.25088773993254</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11515828911781</v>
+        <v>36.11515828911783</v>
       </c>
       <c r="S12" t="n">
         <v>10.80444301740702</v>
       </c>
       <c r="T12" t="n">
-        <v>2.344576890908395</v>
+        <v>2.344576890908396</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03826839321395642</v>
+        <v>0.03826839321395645</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4876606173494335</v>
+        <v>0.4876606173494338</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335746216070421</v>
+        <v>4.335746216070423</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66528474719933</v>
+        <v>14.66528474719934</v>
       </c>
       <c r="J13" t="n">
-        <v>34.47760564660494</v>
+        <v>34.47760564660496</v>
       </c>
       <c r="K13" t="n">
-        <v>56.65729717932508</v>
+        <v>56.65729717932511</v>
       </c>
       <c r="L13" t="n">
-        <v>72.50183396484215</v>
+        <v>72.50183396484219</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44301840869346</v>
+        <v>76.4430184086935</v>
       </c>
       <c r="N13" t="n">
-        <v>74.625374289482</v>
+        <v>74.62537428948204</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92861162317269</v>
+        <v>68.92861162317273</v>
       </c>
       <c r="P13" t="n">
-        <v>58.98033502924419</v>
+        <v>58.98033502924422</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.83492678550574</v>
+        <v>40.83492678550577</v>
       </c>
       <c r="R13" t="n">
-        <v>21.92699466736634</v>
+        <v>21.92699466736635</v>
       </c>
       <c r="S13" t="n">
-        <v>8.498594576898761</v>
+        <v>8.498594576898766</v>
       </c>
       <c r="T13" t="n">
-        <v>2.083640819583942</v>
+        <v>2.083640819583944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02659967003724186</v>
+        <v>0.02659967003724188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,16 +31995,16 @@
         <v>11.13383324415616</v>
       </c>
       <c r="I14" t="n">
-        <v>41.91256986650367</v>
+        <v>41.91256986650368</v>
       </c>
       <c r="J14" t="n">
-        <v>92.27098052544363</v>
+        <v>92.27098052544366</v>
       </c>
       <c r="K14" t="n">
         <v>138.2902810234425</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5613220727132</v>
+        <v>171.5613220727133</v>
       </c>
       <c r="M14" t="n">
         <v>190.8950271336933</v>
@@ -32013,7 +32013,7 @@
         <v>193.9839082473229</v>
       </c>
       <c r="O14" t="n">
-        <v>183.1735038219277</v>
+        <v>183.1735038219278</v>
       </c>
       <c r="P14" t="n">
         <v>156.3343476432283</v>
@@ -32022,16 +32022,16 @@
         <v>117.4005843764061</v>
       </c>
       <c r="R14" t="n">
-        <v>68.29104382016111</v>
+        <v>68.29104382016112</v>
       </c>
       <c r="S14" t="n">
         <v>24.77356036140205</v>
       </c>
       <c r="T14" t="n">
-        <v>4.759024047483814</v>
+        <v>4.759024047483815</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08697245546515245</v>
+        <v>0.08697245546515246</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5816795768521374</v>
+        <v>0.5816795768521377</v>
       </c>
       <c r="H15" t="n">
-        <v>5.617800123808802</v>
+        <v>5.617800123808804</v>
       </c>
       <c r="I15" t="n">
         <v>20.02712578197053</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95596388145568</v>
+        <v>54.95596388145569</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92849553054889</v>
+        <v>93.92849553054891</v>
       </c>
       <c r="L15" t="n">
         <v>126.2984537371275</v>
       </c>
       <c r="M15" t="n">
-        <v>147.3843383980174</v>
+        <v>147.3843383980175</v>
       </c>
       <c r="N15" t="n">
         <v>151.2851632796268</v>
       </c>
       <c r="O15" t="n">
-        <v>138.3963684451662</v>
+        <v>138.3963684451663</v>
       </c>
       <c r="P15" t="n">
-        <v>111.0752869166156</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.25088773993251</v>
+        <v>74.25088773993252</v>
       </c>
       <c r="R15" t="n">
         <v>36.11515828911782</v>
@@ -32107,10 +32107,10 @@
         <v>10.80444301740702</v>
       </c>
       <c r="T15" t="n">
-        <v>2.344576890908395</v>
+        <v>2.344576890908396</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03826839321395643</v>
+        <v>0.03826839321395644</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4876606173494336</v>
+        <v>0.4876606173494337</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335746216070421</v>
+        <v>4.335746216070422</v>
       </c>
       <c r="I16" t="n">
         <v>14.66528474719934</v>
       </c>
       <c r="J16" t="n">
-        <v>34.47760564660495</v>
+        <v>34.47760564660496</v>
       </c>
       <c r="K16" t="n">
-        <v>56.65729717932509</v>
+        <v>56.6572971793251</v>
       </c>
       <c r="L16" t="n">
-        <v>72.50183396484216</v>
+        <v>72.50183396484218</v>
       </c>
       <c r="M16" t="n">
-        <v>76.44301840869348</v>
+        <v>76.44301840869349</v>
       </c>
       <c r="N16" t="n">
-        <v>74.62537428948201</v>
+        <v>74.62537428948202</v>
       </c>
       <c r="O16" t="n">
-        <v>68.9286116231727</v>
+        <v>68.92861162317271</v>
       </c>
       <c r="P16" t="n">
-        <v>58.9803350292442</v>
+        <v>58.98033502924421</v>
       </c>
       <c r="Q16" t="n">
         <v>40.83492678550576</v>
       </c>
       <c r="R16" t="n">
-        <v>21.92699466736634</v>
+        <v>21.92699466736635</v>
       </c>
       <c r="S16" t="n">
-        <v>8.498594576898762</v>
+        <v>8.498594576898764</v>
       </c>
       <c r="T16" t="n">
         <v>2.083640819583943</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02659967003724186</v>
+        <v>0.02659967003724187</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.367018638199505</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H23" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I23" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J23" t="n">
         <v>116.0239981438853</v>
@@ -32718,22 +32718,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M23" t="n">
-        <v>240.036511454749</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N23" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O23" t="n">
-        <v>230.327261576937</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P23" t="n">
-        <v>196.5789889463867</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.6226339658669</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R23" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S23" t="n">
         <v>31.15093721797124</v>
@@ -32742,7 +32742,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H24" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I24" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J24" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K24" t="n">
         <v>118.1082018315525</v>
@@ -32809,7 +32809,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R24" t="n">
         <v>45.41216571495389</v>
@@ -32818,10 +32818,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T24" t="n">
-        <v>2.948133674204761</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H25" t="n">
         <v>5.451883225484925</v>
@@ -32867,40 +32867,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J25" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K25" t="n">
-        <v>71.24240043118331</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L25" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M25" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N25" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O25" t="n">
-        <v>86.67267933521431</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P25" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R25" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S25" t="n">
-        <v>10.6863600646775</v>
+        <v>10.68636006467749</v>
       </c>
       <c r="T25" t="n">
-        <v>2.620025680959011</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.367018638199505</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H26" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70198604918647</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J26" t="n">
         <v>116.0239981438853</v>
@@ -32955,31 +32955,31 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M26" t="n">
-        <v>240.036511454749</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9205531605334</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O26" t="n">
-        <v>230.327261576937</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P26" t="n">
-        <v>196.5789889463867</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.6226339658669</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R26" t="n">
-        <v>85.87098453179972</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S26" t="n">
-        <v>31.15093721797125</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T26" t="n">
-        <v>5.984124088718336</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7314194534479715</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H27" t="n">
-        <v>7.063972089879095</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I27" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J27" t="n">
-        <v>69.10309845053841</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K27" t="n">
         <v>118.1082018315525</v>
@@ -33034,31 +33034,31 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M27" t="n">
-        <v>185.3250080074093</v>
+        <v>185.3250080074092</v>
       </c>
       <c r="N27" t="n">
-        <v>190.2300095175933</v>
+        <v>190.2300095175932</v>
       </c>
       <c r="O27" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P27" t="n">
-        <v>139.6690358079728</v>
+        <v>139.6690358079727</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.36505163662177</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R27" t="n">
-        <v>45.4121657149539</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S27" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T27" t="n">
-        <v>2.948133674204761</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04811970088473499</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6131974997989177</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H28" t="n">
-        <v>5.451883225484926</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I28" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J28" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K28" t="n">
-        <v>71.24240043118333</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L28" t="n">
-        <v>91.16574465192274</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M28" t="n">
-        <v>96.12149535484305</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N28" t="n">
-        <v>93.83594103741081</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O28" t="n">
-        <v>86.67267933521433</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P28" t="n">
-        <v>74.16345033931634</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.34692882407119</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R28" t="n">
-        <v>27.57158940004951</v>
+        <v>27.5715894000495</v>
       </c>
       <c r="S28" t="n">
-        <v>10.6863600646775</v>
+        <v>10.68636006467749</v>
       </c>
       <c r="T28" t="n">
-        <v>2.620025680959011</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>90.02410328955523</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>201.1341951806805</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
@@ -35260,7 +35260,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>223.659467138076</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.6117033908812</v>
+        <v>91.61170339088126</v>
       </c>
       <c r="K11" t="n">
-        <v>260.8139053285977</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L11" t="n">
-        <v>376.0567306094441</v>
+        <v>376.0567306094442</v>
       </c>
       <c r="M11" t="n">
-        <v>433.8015245696482</v>
+        <v>433.8015245696483</v>
       </c>
       <c r="N11" t="n">
-        <v>425.1469726291102</v>
+        <v>425.1469726291103</v>
       </c>
       <c r="O11" t="n">
-        <v>354.8599361990383</v>
+        <v>354.8599361990384</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5528332801824</v>
+        <v>265.5528332801825</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.4601270351187</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>216.9084943021417</v>
+        <v>234.5769390236307</v>
       </c>
       <c r="L12" t="n">
         <v>376.8818925673477</v>
       </c>
       <c r="M12" t="n">
-        <v>493.1369216240495</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N12" t="n">
-        <v>521.7430633156724</v>
+        <v>521.7430633156725</v>
       </c>
       <c r="O12" t="n">
-        <v>408.9818421596316</v>
+        <v>408.9818421596317</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6515190731782</v>
+        <v>293.9830743516893</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.88288746149173</v>
+        <v>41.88288746149176</v>
       </c>
       <c r="L13" t="n">
-        <v>109.9629641938514</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M13" t="n">
-        <v>126.640426405602</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N13" t="n">
         <v>128.8223939541199</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4968196531437</v>
+        <v>103.4968196531438</v>
       </c>
       <c r="P13" t="n">
-        <v>65.10235692792803</v>
+        <v>65.10235692792807</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.61170339088122</v>
+        <v>91.61170339088125</v>
       </c>
       <c r="K14" t="n">
         <v>260.8139053285978</v>
@@ -35661,13 +35661,13 @@
         <v>425.1469726291102</v>
       </c>
       <c r="O14" t="n">
-        <v>354.8599361990383</v>
+        <v>354.8599361990384</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5528332801824</v>
+        <v>265.5528332801825</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4601270351187</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.65945705079753</v>
       </c>
       <c r="K15" t="n">
-        <v>216.9084943021417</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>376.8818925673477</v>
       </c>
       <c r="M15" t="n">
-        <v>493.1369216240495</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N15" t="n">
         <v>521.7430633156724</v>
@@ -35746,7 +35746,7 @@
         <v>311.6515190731783</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>156.2490372513446</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.88288746149174</v>
+        <v>41.88288746149175</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9629641938514</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M16" t="n">
-        <v>126.640426405602</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N16" t="n">
         <v>128.8223939541199</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.65945705079726</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.9084943021417</v>
       </c>
       <c r="L18" t="n">
         <v>376.8818925673477</v>
@@ -35983,7 +35983,7 @@
         <v>311.6515190731783</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>376.8818925673477</v>
       </c>
       <c r="M21" t="n">
-        <v>319.219439651216</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N21" t="n">
         <v>521.7430633156724</v>
@@ -36217,10 +36217,10 @@
         <v>408.9818421596316</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6515190731783</v>
+        <v>293.9830743516893</v>
       </c>
       <c r="Q21" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L23" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M23" t="n">
-        <v>482.9430088907039</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N23" t="n">
-        <v>475.0836175423207</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O23" t="n">
         <v>402.0136939540475</v>
@@ -36445,19 +36445,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M24" t="n">
-        <v>531.0775912334414</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N24" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O24" t="n">
-        <v>444.6087679740799</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P24" t="n">
-        <v>340.2452679645354</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922701</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L25" t="n">
         <v>128.626874880932</v>
@@ -36533,7 +36533,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P25" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L26" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M26" t="n">
-        <v>482.9430088907039</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N26" t="n">
-        <v>475.0836175423207</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O26" t="n">
-        <v>402.0136939540477</v>
+        <v>402.0136939540475</v>
       </c>
       <c r="P26" t="n">
-        <v>305.7974745833409</v>
+        <v>305.7974745833408</v>
       </c>
       <c r="Q26" t="n">
         <v>151.6821766245795</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K27" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L27" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M27" t="n">
-        <v>531.0775912334414</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>560.687909553639</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O27" t="n">
-        <v>444.6087679740799</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P27" t="n">
-        <v>340.2452679645354</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
         <v>175.3632011480339</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.46799071334998</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L28" t="n">
         <v>128.626874880932</v>
@@ -36770,7 +36770,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P28" t="n">
-        <v>80.28547223800018</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>76.57108920456353</v>
       </c>
       <c r="K30" t="n">
-        <v>258.7566453246342</v>
+        <v>111.5710975643069</v>
       </c>
       <c r="L30" t="n">
-        <v>262.2089438898136</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M30" t="n">
         <v>531.0775912334412</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K33" t="n">
-        <v>188.1421867688709</v>
+        <v>111.5710975643069</v>
       </c>
       <c r="L33" t="n">
         <v>409.3944916501405</v>
@@ -37390,7 +37390,7 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L36" t="n">
-        <v>338.7800330943767</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M36" t="n">
         <v>531.0775912334412</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P39" t="n">
-        <v>269.6308094087722</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>258.7566453246342</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.1776533877071</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246342</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740798</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
